--- a/results/etwfe_main_lt.xlsx
+++ b/results/etwfe_main_lt.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,26 +396,1526 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>0.002656273865341978</v>
+      </c>
+      <c r="B2">
+        <v>0.002658266156991072</v>
+      </c>
+      <c r="C2">
+        <v>0.9992505296567634</v>
+      </c>
+      <c r="D2">
+        <v>0.3437799782271176</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ZWE</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>-0.00255383206368222</v>
+      </c>
+      <c r="G2">
+        <v>0.007866379794366173</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>-0.00599781410782995</v>
+      </c>
+      <c r="B3">
+        <v>0.002169474477657737</v>
+      </c>
+      <c r="C3">
+        <v>-2.764639164737012</v>
+      </c>
+      <c r="D3">
+        <v>0.02194503341052306</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>-0.01024990594941796</v>
+      </c>
+      <c r="G3">
+        <v>-0.001745722266241942</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.00103618975214106</v>
+      </c>
+      <c r="B4">
+        <v>0.001196221823189965</v>
+      </c>
+      <c r="C4">
+        <v>0.8662187330589344</v>
+      </c>
+      <c r="D4">
+        <v>0.4115945395299591</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>-0.001308361938832111</v>
+      </c>
+      <c r="G4">
+        <v>0.003380741443114231</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>-0.001745584811416927</v>
+      </c>
+      <c r="B5">
+        <v>0.002322955334634095</v>
+      </c>
+      <c r="C5">
+        <v>-0.7514500108508917</v>
+      </c>
+      <c r="D5">
+        <v>0.4657688572058112</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>UZB</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>-0.006298493604994941</v>
+      </c>
+      <c r="G5">
+        <v>0.002807323982161086</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.01780996524773392</v>
+      </c>
+      <c r="B6">
+        <v>0.002462049166793741</v>
+      </c>
+      <c r="C6">
+        <v>7.233797556905555</v>
+      </c>
+      <c r="D6">
+        <v>1.421574180759578E-09</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>0.01298443755265134</v>
+      </c>
+      <c r="G6">
+        <v>0.0226354929428165</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.0054400212160528</v>
+      </c>
+      <c r="B7">
+        <v>0.003011056614662667</v>
+      </c>
+      <c r="C7">
+        <v>1.806681810485405</v>
+      </c>
+      <c r="D7">
+        <v>0.0811993359073211</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>TZA</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>-0.0004615413040971262</v>
+      </c>
+      <c r="G7">
+        <v>0.01134158373620273</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>-0.004664418293743593</v>
+      </c>
+      <c r="B8">
+        <v>0.005303997970876938</v>
+      </c>
+      <c r="C8">
+        <v>-0.8794155501858911</v>
+      </c>
+      <c r="D8">
+        <v>0.3964451311735095</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>TLS</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>-0.01506006329073592</v>
+      </c>
+      <c r="G8">
+        <v>0.00573122670324873</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.001119526883164226</v>
+      </c>
+      <c r="B9">
+        <v>0.001940476915141749</v>
+      </c>
+      <c r="C9">
+        <v>0.5769338838449654</v>
+      </c>
+      <c r="D9">
+        <v>0.5948978530679387</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>TJK</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>-0.002683737983344987</v>
+      </c>
+      <c r="G9">
+        <v>0.00492279174967344</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>-0.002271914312782519</v>
+      </c>
+      <c r="B10">
+        <v>0.004303161501203336</v>
+      </c>
+      <c r="C10">
+        <v>-0.5279639893011685</v>
+      </c>
+      <c r="D10">
+        <v>0.5990625154403333</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>-0.01070595587480037</v>
+      </c>
+      <c r="G10">
+        <v>0.006162127249235332</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.006721751308056927</v>
+      </c>
+      <c r="B11">
+        <v>0.004368826868586583</v>
+      </c>
+      <c r="C11">
+        <v>1.538571225238681</v>
+      </c>
+      <c r="D11">
+        <v>0.1987372615097475</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TGO</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>-0.001840992009063678</v>
+      </c>
+      <c r="G11">
+        <v>0.01528449462517753</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>-0.01062483636245802</v>
+      </c>
+      <c r="B12">
+        <v>0.01300538367009718</v>
+      </c>
+      <c r="C12">
+        <v>-0.8169567797440168</v>
+      </c>
+      <c r="D12">
+        <v>0.422712243763648</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>TCD</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>-0.03611491996097383</v>
+      </c>
+      <c r="G12">
+        <v>0.0148652472360578</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.01710222536208254</v>
+      </c>
+      <c r="B13">
+        <v>0.009304778260969112</v>
+      </c>
+      <c r="C13">
+        <v>1.838004612514141</v>
+      </c>
+      <c r="D13">
+        <v>0.08470162577955971</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SOM</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>-0.001134804913548153</v>
+      </c>
+      <c r="G13">
+        <v>0.03533925563771323</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.01158801545983174</v>
+      </c>
+      <c r="B14">
+        <v>0.00946346362418723</v>
+      </c>
+      <c r="C14">
+        <v>1.224500449308482</v>
+      </c>
+      <c r="D14">
+        <v>0.2424904033287114</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SLV</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>-0.006960032412580128</v>
+      </c>
+      <c r="G14">
+        <v>0.03013606333224359</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>-0.007004349986546541</v>
+      </c>
+      <c r="B15">
+        <v>0.003144596393927199</v>
+      </c>
+      <c r="C15">
+        <v>-2.227424161674053</v>
+      </c>
+      <c r="D15">
+        <v>0.04421029614327966</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>-0.01316764566455838</v>
+      </c>
+      <c r="G15">
+        <v>-0.0008410543085347047</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.0004306067397400408</v>
+      </c>
+      <c r="B16">
+        <v>0.00500198743847109</v>
+      </c>
+      <c r="C16">
+        <v>0.08608712937345166</v>
+      </c>
+      <c r="D16">
+        <v>0.9324029624423096</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SDN</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>-0.009373108490785055</v>
+      </c>
+      <c r="G16">
+        <v>0.01023432197026513</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>-0.0006682792627159737</v>
+      </c>
+      <c r="B17">
+        <v>0.0004517856709143398</v>
+      </c>
+      <c r="C17">
+        <v>-1.479195348014217</v>
+      </c>
+      <c r="D17">
+        <v>0.2131772242806353</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>-0.001553762906439345</v>
+      </c>
+      <c r="G17">
+        <v>0.0002172043810073972</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>-0.000590601457808818</v>
+      </c>
+      <c r="B18">
+        <v>0.003205366188941437</v>
+      </c>
+      <c r="C18">
+        <v>-0.1842539738038051</v>
+      </c>
+      <c r="D18">
+        <v>0.8542804792997266</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>PHL</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>-0.006873003745396443</v>
+      </c>
+      <c r="G18">
+        <v>0.005691800829778806</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.001349232914634303</v>
+      </c>
+      <c r="B19">
+        <v>0.001794583027070082</v>
+      </c>
+      <c r="C19">
+        <v>0.7518364401546366</v>
+      </c>
+      <c r="D19">
+        <v>0.4805912882094986</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>PAK</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>-0.002168085185689927</v>
+      </c>
+      <c r="G19">
+        <v>0.004866551014958532</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.001927476120430448</v>
+      </c>
+      <c r="B20">
+        <v>0.001339579595554489</v>
+      </c>
+      <c r="C20">
+        <v>1.438866437520357</v>
+      </c>
+      <c r="D20">
+        <v>0.2235866934760063</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NPL</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>-0.0006980516412810822</v>
+      </c>
+      <c r="G20">
+        <v>0.004553003882141977</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>-0.01318136655888745</v>
+      </c>
+      <c r="B21">
+        <v>0.01014953628544407</v>
+      </c>
+      <c r="C21">
+        <v>-1.298716137188599</v>
+      </c>
+      <c r="D21">
+        <v>0.2124477128345675</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>-0.03307409213814026</v>
+      </c>
+      <c r="G21">
+        <v>0.006711359020365369</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>-0.01072818985448148</v>
+      </c>
+      <c r="B22">
+        <v>0.008253529728744432</v>
+      </c>
+      <c r="C22">
+        <v>-1.299830521857647</v>
+      </c>
+      <c r="D22">
+        <v>0.2298589610944013</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NER</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>-0.0269048108681512</v>
+      </c>
+      <c r="G22">
+        <v>0.005448431159188248</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>-0.003273325023227473</v>
+      </c>
+      <c r="B23">
+        <v>0.005127005427833552</v>
+      </c>
+      <c r="C23">
+        <v>-0.6384477389973502</v>
+      </c>
+      <c r="D23">
+        <v>0.5351773770338215</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NAM</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>-0.01332207101032261</v>
+      </c>
+      <c r="G23">
+        <v>0.006775420963867657</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.0005051445015118215</v>
+      </c>
+      <c r="B24">
+        <v>0.001974535739641603</v>
+      </c>
+      <c r="C24">
+        <v>0.255829505321342</v>
+      </c>
+      <c r="D24">
+        <v>0.8000215145011143</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MWI</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>-0.003364874434372877</v>
+      </c>
+      <c r="G24">
+        <v>0.00437516343739652</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>-0.002316030778082635</v>
+      </c>
+      <c r="B25">
+        <v>0.001741116223160883</v>
+      </c>
+      <c r="C25">
+        <v>-1.330198838695576</v>
+      </c>
+      <c r="D25">
+        <v>0.2081808663139812</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MRT</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>-0.00572855586837637</v>
+      </c>
+      <c r="G25">
+        <v>0.001096494312211099</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>-0.003176625507632983</v>
+      </c>
+      <c r="B26">
+        <v>0.002337376131997299</v>
+      </c>
+      <c r="C26">
+        <v>-1.359056193030662</v>
+      </c>
+      <c r="D26">
+        <v>0.2039886679401301</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MOZ</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>-0.007757798544671228</v>
+      </c>
+      <c r="G26">
+        <v>0.001404547529405261</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.003892278506982723</v>
+      </c>
+      <c r="B27">
+        <v>0.004760280248904059</v>
+      </c>
+      <c r="C27">
+        <v>0.8176574284421232</v>
+      </c>
+      <c r="D27">
+        <v>0.4227334613192707</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MNG</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>-0.005437699337186596</v>
+      </c>
+      <c r="G27">
+        <v>0.01322225635115204</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.01035955508449348</v>
+      </c>
+      <c r="B28">
+        <v>0.001920018066463993</v>
+      </c>
+      <c r="C28">
+        <v>5.395550836441966</v>
+      </c>
+      <c r="D28">
+        <v>0.0004355340879186293</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MLI</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>0.006596388824557826</v>
+      </c>
+      <c r="G28">
+        <v>0.01412272134442914</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.00221290398605063</v>
+      </c>
+      <c r="B29">
+        <v>0.00135794941832612</v>
+      </c>
+      <c r="C29">
+        <v>1.629592351663859</v>
+      </c>
+      <c r="D29">
+        <v>0.1641164490590193</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>-0.0004486279666956793</v>
+      </c>
+      <c r="G29">
+        <v>0.004874435938796939</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>-0.008929079258355585</v>
+      </c>
+      <c r="B30">
+        <v>0.01677099116686026</v>
+      </c>
+      <c r="C30">
+        <v>-0.532412137691634</v>
+      </c>
+      <c r="D30">
+        <v>0.5978046411620126</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MDA</t>
+        </is>
+      </c>
+      <c r="F30">
+        <v>-0.04179961793044108</v>
+      </c>
+      <c r="G30">
+        <v>0.0239414594137299</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>-0.008526003399807493</v>
+      </c>
+      <c r="B31">
+        <v>0.006615311038849371</v>
+      </c>
+      <c r="C31">
+        <v>-1.288828801811027</v>
+      </c>
+      <c r="D31">
+        <v>0.2199211126820048</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="F31">
+        <v>-0.02149177478248251</v>
+      </c>
+      <c r="G31">
+        <v>0.004439767982867521</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>-0.008249548944076033</v>
+      </c>
+      <c r="B32">
+        <v>0.002312716447672424</v>
+      </c>
+      <c r="C32">
+        <v>-3.567038645130313</v>
+      </c>
+      <c r="D32">
+        <v>0.00605222424034949</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>LSO</t>
+        </is>
+      </c>
+      <c r="F32">
+        <v>-0.0127823898879674</v>
+      </c>
+      <c r="G32">
+        <v>-0.003716708000184672</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>-0.001417272133093616</v>
+      </c>
+      <c r="B33">
+        <v>0.003506981555826261</v>
+      </c>
+      <c r="C33">
+        <v>-0.4041287672982072</v>
+      </c>
+      <c r="D33">
+        <v>0.6911567054514558</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>LAO</t>
+        </is>
+      </c>
+      <c r="F33">
+        <v>-0.008290829676959334</v>
+      </c>
+      <c r="G33">
+        <v>0.0054562854107721</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.0001443428973236247</v>
+      </c>
+      <c r="B34">
+        <v>0.00215918287747202</v>
+      </c>
+      <c r="C34">
+        <v>0.06685070487990435</v>
+      </c>
+      <c r="D34">
+        <v>0.9472543529110444</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>KHM</t>
+        </is>
+      </c>
+      <c r="F34">
+        <v>-0.004087577778557094</v>
+      </c>
+      <c r="G34">
+        <v>0.004376263573204343</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.00356978481681439</v>
+      </c>
+      <c r="B35">
+        <v>0.00517450362107845</v>
+      </c>
+      <c r="C35">
+        <v>0.6898796634855556</v>
+      </c>
+      <c r="D35">
+        <v>0.5045642514307945</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>KGZ</t>
+        </is>
+      </c>
+      <c r="F35">
+        <v>-0.006572055918371464</v>
+      </c>
+      <c r="G35">
+        <v>0.01371162555200024</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>-0.0003118195088008149</v>
+      </c>
+      <c r="B36">
+        <v>0.001319187682193435</v>
+      </c>
+      <c r="C36">
+        <v>-0.2363723623331197</v>
+      </c>
+      <c r="D36">
+        <v>0.8141931273514074</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>KEN</t>
+        </is>
+      </c>
+      <c r="F36">
+        <v>-0.002897379854748817</v>
+      </c>
+      <c r="G36">
+        <v>0.002273740837147187</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>-0.003435951508314594</v>
+      </c>
+      <c r="B37">
+        <v>0.006582192658671449</v>
+      </c>
+      <c r="C37">
+        <v>-0.5220071314363665</v>
+      </c>
+      <c r="D37">
+        <v>0.6104450387414192</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>JAM</t>
+        </is>
+      </c>
+      <c r="F37">
+        <v>-0.01633681205861458</v>
+      </c>
+      <c r="G37">
+        <v>0.009464909041985388</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>-0.001116848524544889</v>
+      </c>
+      <c r="B38">
+        <v>0.0008789016697965787</v>
+      </c>
+      <c r="C38">
+        <v>-1.270732054478157</v>
+      </c>
+      <c r="D38">
+        <v>0.2122056645807802</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>-0.002839464143298298</v>
+      </c>
+      <c r="G38">
+        <v>0.0006057670942085196</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>-0.002865827154679278</v>
+      </c>
+      <c r="B39">
+        <v>0.001667082081206877</v>
+      </c>
+      <c r="C39">
+        <v>-1.719067817347407</v>
+      </c>
+      <c r="D39">
+        <v>0.0952631918078264</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>IDN</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>-0.006133247993116833</v>
+      </c>
+      <c r="G39">
+        <v>0.0004015936837582774</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>-0.01603366300778929</v>
+      </c>
+      <c r="B40">
+        <v>0.002960182772340942</v>
+      </c>
+      <c r="C40">
+        <v>-5.416443591795417</v>
+      </c>
+      <c r="D40">
+        <v>0.0004238013462391257</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>HTI</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>-0.02183551462923346</v>
+      </c>
+      <c r="G40">
+        <v>-0.01023181138634511</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.009202726205931933</v>
+      </c>
+      <c r="B41">
+        <v>0.01201375573261914</v>
+      </c>
+      <c r="C41">
+        <v>0.7660157581650471</v>
+      </c>
+      <c r="D41">
+        <v>0.4505658502024064</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>HND</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>-0.01434380234906319</v>
+      </c>
+      <c r="G41">
+        <v>0.03274925476092706</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.0009638766390722706</v>
+      </c>
+      <c r="B42">
+        <v>0.001927186739263687</v>
+      </c>
+      <c r="C42">
+        <v>0.500146985984625</v>
+      </c>
+      <c r="D42">
+        <v>0.628971836415044</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>GUY</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>-0.00281333996136774</v>
+      </c>
+      <c r="G42">
+        <v>0.00474109323951228</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>-0.003035349001372455</v>
+      </c>
+      <c r="B43">
+        <v>0.003940747569378491</v>
+      </c>
+      <c r="C43">
+        <v>-0.7702470021065497</v>
+      </c>
+      <c r="D43">
+        <v>0.4497322484216381</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>GTM</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>-0.01075907230951806</v>
+      </c>
+      <c r="G43">
+        <v>0.004688374306773144</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.009840213424428819</v>
+      </c>
+      <c r="B44">
+        <v>0.007359893433888906</v>
+      </c>
+      <c r="C44">
+        <v>1.337004878239023</v>
+      </c>
+      <c r="D44">
+        <v>0.2179899492254571</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>GNB</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>-0.004584912636046261</v>
+      </c>
+      <c r="G44">
+        <v>0.0242653394849039</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.002204165829473977</v>
+      </c>
+      <c r="B45">
+        <v>0.0006599795887204491</v>
+      </c>
+      <c r="C45">
+        <v>3.339748481839195</v>
+      </c>
+      <c r="D45">
+        <v>0.02055816560048358</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>GMB</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>0.0009106296050503391</v>
+      </c>
+      <c r="G45">
+        <v>0.003497702053897614</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.01205018272797082</v>
+      </c>
+      <c r="B46">
+        <v>0.007368933962854421</v>
+      </c>
+      <c r="C46">
+        <v>1.635268111875313</v>
+      </c>
+      <c r="D46">
+        <v>0.1330380024860531</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>GIN</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>-0.00239266244367786</v>
+      </c>
+      <c r="G46">
+        <v>0.0264930278996195</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>-0.0035835914965021</v>
+      </c>
+      <c r="B47">
+        <v>0.007271994489310355</v>
+      </c>
+      <c r="C47">
+        <v>-0.4927934835167832</v>
+      </c>
+      <c r="D47">
+        <v>0.6327990780167898</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>GEO</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>-0.01783643879132414</v>
+      </c>
+      <c r="G47">
+        <v>0.01066925579831994</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.00873509971792742</v>
+      </c>
+      <c r="B48">
+        <v>0.003136163956688162</v>
+      </c>
+      <c r="C48">
+        <v>2.78528158558133</v>
+      </c>
+      <c r="D48">
+        <v>0.01927518658897902</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>0.00258833131320599</v>
+      </c>
+      <c r="G48">
+        <v>0.01488186812264885</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>-0.006321487768653947</v>
+      </c>
+      <c r="B49">
+        <v>0.00401097212738605</v>
+      </c>
+      <c r="C49">
+        <v>-1.576048790140474</v>
+      </c>
+      <c r="D49">
+        <v>0.1358668476882444</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>CUB</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>-0.01418284868132461</v>
+      </c>
+      <c r="G49">
+        <v>0.001539873144016712</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.01359242533502073</v>
+      </c>
+      <c r="B50">
+        <v>0.009926321954189344</v>
+      </c>
+      <c r="C50">
+        <v>1.369331500403745</v>
+      </c>
+      <c r="D50">
+        <v>0.2199363999914231</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>CRI</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>-0.005862808194139632</v>
+      </c>
+      <c r="G50">
+        <v>0.03304765886418108</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>-0.009221691159293032</v>
+      </c>
+      <c r="B51">
+        <v>0.005948962204230829</v>
+      </c>
+      <c r="C51">
+        <v>-1.550134433991643</v>
+      </c>
+      <c r="D51">
+        <v>0.1493851906487611</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>COG</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>-0.02088144282497547</v>
+      </c>
+      <c r="G51">
+        <v>0.002438060506389403</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>-0.01968364050892391</v>
+      </c>
+      <c r="B52">
+        <v>0.007949349775669152</v>
+      </c>
+      <c r="C52">
+        <v>-2.476132144690664</v>
+      </c>
+      <c r="D52">
+        <v>0.01875889658693836</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>-0.035264079769747</v>
+      </c>
+      <c r="G52">
+        <v>-0.004103201248100813</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.004021787230787813</v>
+      </c>
+      <c r="B53">
+        <v>0.001478342255730324</v>
+      </c>
+      <c r="C53">
+        <v>2.720470997293511</v>
+      </c>
+      <c r="D53">
+        <v>0.02154290403022707</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>CMR</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>0.001124289652732676</v>
+      </c>
+      <c r="G53">
+        <v>0.00691928480884295</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.01605019989844619</v>
+      </c>
+      <c r="B54">
+        <v>0.01139698578605931</v>
+      </c>
+      <c r="C54">
+        <v>1.408284628912905</v>
+      </c>
+      <c r="D54">
+        <v>0.1825108536995111</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>CIV</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>-0.006287481774544978</v>
+      </c>
+      <c r="G54">
+        <v>0.03838788157143737</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>-0.0015672472051111</v>
+      </c>
+      <c r="B55">
+        <v>0.001401151417258434</v>
+      </c>
+      <c r="C55">
+        <v>-1.118542354385694</v>
+      </c>
+      <c r="D55">
+        <v>0.2923004730903523</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>BOL</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>-0.004313453519824883</v>
+      </c>
+      <c r="G55">
+        <v>0.001178959109602682</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>-0.001779455786489305</v>
+      </c>
+      <c r="B56">
+        <v>0.002323040424434699</v>
+      </c>
+      <c r="C56">
+        <v>-0.7660029363984603</v>
+      </c>
+      <c r="D56">
+        <v>0.4727233707501065</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>BGD</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>-0.006332531353011956</v>
+      </c>
+      <c r="G56">
+        <v>0.002773619780033346</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>-0.0006331109726624844</v>
+      </c>
+      <c r="B57">
+        <v>0.003342399567277942</v>
+      </c>
+      <c r="C57">
+        <v>-0.1894180991586507</v>
+      </c>
+      <c r="D57">
+        <v>0.8529312300092806</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>BFA</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>-0.007184093746469512</v>
+      </c>
+      <c r="G57">
+        <v>0.005917871801144542</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>-0.005809053445984648</v>
+      </c>
+      <c r="B58">
+        <v>0.003638487495252423</v>
+      </c>
+      <c r="C58">
+        <v>-1.596557210534439</v>
+      </c>
+      <c r="D58">
+        <v>0.1363478873619925</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>BEN</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>-0.01294035789487875</v>
+      </c>
+      <c r="G58">
+        <v>0.00132225100290945</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.003751115548200571</v>
+      </c>
+      <c r="B59">
+        <v>0.001971163222420969</v>
+      </c>
+      <c r="C59">
+        <v>1.902995908980829</v>
+      </c>
+      <c r="D59">
+        <v>0.07519267509853865</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>BDI</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>-0.0001122933753944428</v>
+      </c>
+      <c r="G59">
+        <v>0.007614524471795584</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.0005410108107401328</v>
+      </c>
+      <c r="B60">
+        <v>0.005640071515445199</v>
+      </c>
+      <c r="C60">
+        <v>0.09592268630966608</v>
+      </c>
+      <c r="D60">
+        <v>0.9254770548014295</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ARM</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>-0.0105133262297627</v>
+      </c>
+      <c r="G60">
+        <v>0.01159534785124296</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>-0.0009602029749012011</v>
+      </c>
+      <c r="B61">
+        <v>0.004225610479772102</v>
+      </c>
+      <c r="C61">
+        <v>-0.2272341427345635</v>
+      </c>
+      <c r="D61">
+        <v>0.8229519081930873</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>AGO</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>-0.009242247327949539</v>
+      </c>
+      <c r="G61">
+        <v>0.007321841378147135</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
         <v>-0.003628629502980729</v>
       </c>
-      <c r="B2">
+      <c r="B62">
         <v>0.001970418300823437</v>
       </c>
-      <c r="C2">
+      <c r="C62">
         <v>-1.841552883194562</v>
       </c>
-      <c r="D2">
+      <c r="D62">
         <v>0.07454425816891438</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>AFG</t>
         </is>
       </c>
-      <c r="F2">
+      <c r="F62">
         <v>-0.007490578407073274</v>
       </c>
-      <c r="G2">
+      <c r="G62">
         <v>0.0002333194011118166</v>
       </c>
     </row>
